--- a/AutoBM/Table/Item2.xlsx
+++ b/AutoBM/Table/Item2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF667255-33B1-4D07-B81E-1992FD18B2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F41F2-D68C-445E-A3C1-DE44482B1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29925" yWindow="1125" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <r>
       <rPr>
@@ -474,27 +474,12 @@
     <t>Code</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
-  <si>
-    <t>(분류)</t>
-  </si>
-  <si>
-    <t>마도 공학 장비 패키지</t>
-  </si>
-  <si>
-    <t>사용 시 '마도 공학 장비 선택권(추가스킬1)' 1개, '마도 실험 보고서' 10개, '재연마 쿠폰' 20개, '100,000,000 골드'를 획득합니다.</t>
-  </si>
-  <si>
-    <t>루아의 전용무기 각성석 패키지1</t>
-  </si>
-  <si>
-    <t>사용 시 '루아의 전용무기 각성석' 3개, '루아의 전용 무기 선택권' 1개를 획득합니다.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,12 +544,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -639,7 +618,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,10 +657,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -961,7 +936,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -979,98 +954,54 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/AutoBM/Table/Item2.xlsx
+++ b/AutoBM/Table/Item2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F41F2-D68C-445E-A3C1-DE44482B1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CABA28-CE7E-4ABC-987B-B7AD460F9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="1125" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="1335" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <r>
       <rPr>
@@ -936,7 +936,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -960,7 +960,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
@@ -968,19 +970,29 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
@@ -990,7 +1002,9 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>

--- a/AutoBM/Table/Item2.xlsx
+++ b/AutoBM/Table/Item2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CABA28-CE7E-4ABC-987B-B7AD460F9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8834070-FCCF-45C4-ABC2-B5BF9F94E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1335" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,364 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패키지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미사용)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루아의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전용무기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>각성석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패키지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미사용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루아의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전용무기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>각성석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패키지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미사용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소울웨폰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패키지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미사용)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <r>
       <rPr>
@@ -472,14 +115,14 @@
   </si>
   <si>
     <t>Code</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,13 +163,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -612,13 +248,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,75 +572,49 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>

--- a/AutoBM/Table/Item2.xlsx
+++ b/AutoBM/Table/Item2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8834070-FCCF-45C4-ABC2-B5BF9F94E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605ABC02-3C58-4587-8C5D-AC5FB1ECCD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,18 +37,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={AAEA1592-7626-415A-96C4-E3DE19264C37}</author>
-    <author>tc={626169FB-8B74-4D8C-B61B-73E5437282C4}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AAEA1592-7626-415A-96C4-E3DE19264C37}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    아이템 코드</t>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="1" shapeId="0" xr:uid="{626169FB-8B74-4D8C-B61B-73E5437282C4}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -122,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,14 +168,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -251,27 +234,11 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -561,79 +528,42 @@
   <threadedComment ref="A1" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{AAEA1592-7626-415A-96C4-E3DE19264C37}">
     <text>아이템 코드</text>
   </threadedComment>
-  <threadedComment ref="E12" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{626169FB-8B74-4D8C-B61B-73E5437282C4}">
-    <text>아이템 코드</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AutoBM/Table/Item2.xlsx
+++ b/AutoBM/Table/Item2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605ABC02-3C58-4587-8C5D-AC5FB1ECCD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EFBFF7-21B3-417F-B08F-E7123310C6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29955" yWindow="1920" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,13 +533,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -547,16 +550,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/AutoBM/Table/Item2.xlsx
+++ b/AutoBM/Table/Item2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EFBFF7-21B3-417F-B08F-E7123310C6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A143A11-15B9-4E3B-A8F2-46360801C814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="1920" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2850" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,11 +228,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +536,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,12 +545,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
